--- a/Stitching_Mineral_Data/Garibaldi_Volcanic_Belt.xlsx
+++ b/Stitching_Mineral_Data/Garibaldi_Volcanic_Belt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\PyMME\MyBarometers\Cascades_Data\Supporting_Information_Sept2022\Mineral_Diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\PyMME\MyBarometers\Cascades_Data\Supporting_Information_Sept2022\Stitching_Mineral_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12AE727-91CF-4B13-B179-53D5EF2CB5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F893DD-57DF-49F2-849E-7D0EFD2CAB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15510" activeTab="1" xr2:uid="{094A3D7E-A5B9-488F-98AD-6D7E1E15DB24}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{094A3D7E-A5B9-488F-98AD-6D7E1E15DB24}"/>
   </bookViews>
   <sheets>
     <sheet name="Cpx_All" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="References" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="57">
   <si>
     <t>13-1</t>
   </si>
@@ -190,6 +191,24 @@
   </si>
   <si>
     <t>Px</t>
+  </si>
+  <si>
+    <t>Formation</t>
+  </si>
+  <si>
+    <t>GLVF</t>
+  </si>
+  <si>
+    <t>GLVF - Helm Creek Basaltic Andesite</t>
+  </si>
+  <si>
+    <t>10JF021</t>
+  </si>
+  <si>
+    <t>10JF024</t>
+  </si>
+  <si>
+    <t>10JF025</t>
   </si>
 </sst>
 </file>
@@ -555,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DDC3D4-D5F3-4714-8B7A-62D1CD970CA5}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -2301,15 +2320,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDADA8A-5401-4760-B506-A7C941CD6E31}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>32</v>
       </c>
@@ -2367,8 +2389,11 @@
       <c r="T1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2426,8 +2451,11 @@
       <c r="T2">
         <v>0.45829970083039001</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2485,8 +2513,11 @@
       <c r="T3">
         <v>0.447021476671979</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2544,8 +2575,11 @@
       <c r="T4">
         <v>0.45745195390582399</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2600,8 +2634,11 @@
       <c r="T5">
         <v>0.43646771938068502</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2662,8 +2699,11 @@
       <c r="T6">
         <v>0.44267138582257198</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2721,8 +2761,11 @@
       <c r="T7">
         <v>0.46177735208695198</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2780,8 +2823,14 @@
       <c r="T8">
         <v>0.44635231468332598</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2839,8 +2888,14 @@
       <c r="T9">
         <v>0.41215602333003298</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2898,8 +2953,11 @@
       <c r="T10">
         <v>0.42205027367944398</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2951,8 +3009,11 @@
       <c r="T11">
         <v>0.44098506747077698</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3010,8 +3071,11 @@
       <c r="T12">
         <v>0.40604577222244098</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3066,8 +3130,11 @@
       <c r="T13">
         <v>0.450238244966992</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3128,8 +3195,11 @@
       <c r="T14">
         <v>0.443818689684566</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3190,8 +3260,11 @@
       <c r="T15">
         <v>0.43743888883265097</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3248,6 +3321,12 @@
       </c>
       <c r="T16">
         <v>0.44685826357726099</v>
+      </c>
+      <c r="U16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V16" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
